--- a/吉田学園情報ビジネス専門学校_堀合 稀/履歴書/堀合 稀_履歴書(ランカース).xlsx
+++ b/吉田学園情報ビジネス専門学校_堀合 稀/履歴書/堀合 稀_履歴書(ランカース).xlsx
@@ -275,19 +275,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>職に就きたいと考えております。私も制作にあたっては、ゲームの土台となる</t>
-    <rPh sb="2" eb="3">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワタシ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>　私はユーザーに楽しんでいただける、自分が開発に携わったゲームを開発できる</t>
     <rPh sb="1" eb="2">
       <t>ワタシ</t>
@@ -304,14 +291,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>プログラムの構築が好きで、周囲とも共有できるようにまめにコメントを</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>入れるなどして丁寧なソースコードづくりを心がけております。また、貴社の</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>069-0382</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -605,6 +584,30 @@
     <rPh sb="9" eb="10">
       <t>マイ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>職に就きたいと考えております。私は作品制作にあたっては、ゲームの土台となる</t>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクヒン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プログラムの構築が好きで、チームメイトともソースコードを共有できるようにまめに</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コメントを入れるなどして丁寧なソースコードづくりを心がけております。また、貴社の</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1631,6 +1634,176 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1753,174 +1926,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1939,119 +2055,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2451,22 +2454,22 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="75" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="P3" s="28"/>
+      <c r="C3" s="78"/>
+      <c r="P3" s="76"/>
     </row>
     <row r="4" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="16"/>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -2479,136 +2482,136 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="28"/>
+      <c r="P4" s="76"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="P5" s="28"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="P5" s="76"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39"/>
-      <c r="P6" s="28"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="2:17" ht="23.4" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="P7" s="28"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="89"/>
+      <c r="P7" s="76"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="48">
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="96">
         <v>2</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="96">
         <v>22</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="55">
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="103">
         <v>26</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="76"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="57"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="105"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61" t="s">
+      <c r="C10" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="63"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2617,92 +2620,92 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="70"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="66"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74" t="s">
+      <c r="B12" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="75"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="56"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
+      <c r="C13" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="74" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="75"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="56"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2711,58 +2714,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="81" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="53"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="84"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="75"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="56"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="90"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.9" customHeight="1">
@@ -2772,22 +2775,22 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="93"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9">
@@ -2796,22 +2799,22 @@
       <c r="C20" s="10">
         <v>3</v>
       </c>
-      <c r="D20" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96"/>
+      <c r="D20" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9">
@@ -2820,22 +2823,22 @@
       <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="D21" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
+      <c r="D21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9">
@@ -2844,22 +2847,22 @@
       <c r="C22" s="10">
         <v>11</v>
       </c>
-      <c r="D22" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="96"/>
+      <c r="D22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9">
@@ -2868,22 +2871,22 @@
       <c r="C23" s="10">
         <v>12</v>
       </c>
-      <c r="D23" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="96"/>
+      <c r="D23" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
       <c r="B24" s="9">
@@ -2892,22 +2895,22 @@
       <c r="C24" s="10">
         <v>12</v>
       </c>
-      <c r="D24" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="96"/>
+      <c r="D24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9">
@@ -2916,22 +2919,22 @@
       <c r="C25" s="10">
         <v>2</v>
       </c>
-      <c r="D25" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="96"/>
+      <c r="D25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9">
@@ -2940,22 +2943,22 @@
       <c r="C26" s="10">
         <v>3</v>
       </c>
-      <c r="D26" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="96"/>
+      <c r="D26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9">
@@ -2964,22 +2967,22 @@
       <c r="C27" s="10">
         <v>4</v>
       </c>
-      <c r="D27" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
+      <c r="D27" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9">
@@ -2988,22 +2991,22 @@
       <c r="C28" s="10">
         <v>9</v>
       </c>
-      <c r="D28" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="96"/>
+      <c r="D28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9">
@@ -3012,22 +3015,22 @@
       <c r="C29" s="10">
         <v>3</v>
       </c>
-      <c r="D29" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
+      <c r="D29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="9">
@@ -3036,40 +3039,40 @@
       <c r="C30" s="10">
         <v>4</v>
       </c>
-      <c r="D30" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
+      <c r="D30" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="102"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -3078,42 +3081,42 @@
       <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="105"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="96"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -3122,22 +3125,22 @@
       <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="96"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="24" t="s">
@@ -3146,60 +3149,25 @@
       <c r="C35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="97" t="s">
+      <c r="D35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="99"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:H4"/>
@@ -3215,6 +3183,41 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="D33:Q33"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -3232,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:L30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3257,122 +3260,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="121"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="111"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="132"/>
     </row>
     <row r="5" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="111"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="111"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="2:12" s="22" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="111"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="111"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="132"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="111"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="21"/>
@@ -3388,139 +3391,139 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="2:12" ht="15.9" customHeight="1">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="116"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="134"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="137"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="111"/>
+      <c r="B13" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="132"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="108"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="137"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="132"/>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" customHeight="1">
+      <c r="B16" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="137"/>
+    </row>
+    <row r="17" spans="2:15" ht="32.1" customHeight="1">
+      <c r="B17" s="138" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="132"/>
+    </row>
+    <row r="18" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B18" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+    </row>
+    <row r="19" spans="2:15" ht="32.1" customHeight="1" thickBot="1">
+      <c r="B19" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="111"/>
-    </row>
-    <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
-    </row>
-    <row r="17" spans="2:15" ht="32.1" customHeight="1">
-      <c r="B17" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
-    </row>
-    <row r="18" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B18" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="108"/>
-    </row>
-    <row r="19" spans="2:15" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="130"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
     </row>
     <row r="20" spans="2:15" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="21"/>
@@ -3536,177 +3539,195 @@
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="138" t="s">
+      <c r="G21" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="139"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="126"/>
     </row>
     <row r="22" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B22" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="133"/>
+      <c r="B22" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
     </row>
     <row r="23" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B23" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="114"/>
+      <c r="B23" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
     </row>
     <row r="24" spans="2:15" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="114"/>
+      <c r="B24" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
     </row>
     <row r="25" spans="2:15" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="112" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="114"/>
+      <c r="B25" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="111"/>
       <c r="O25" s="26"/>
     </row>
     <row r="26" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B26" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="114"/>
+      <c r="B26" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
     </row>
     <row r="27" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+    </row>
+    <row r="28" spans="2:15" s="22" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="108"/>
+    </row>
+    <row r="29" spans="2:15" ht="26.1" customHeight="1">
+      <c r="B29" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="114"/>
-    </row>
-    <row r="28" spans="2:15" s="22" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="122" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="124"/>
-    </row>
-    <row r="29" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B29" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="124"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="108"/>
     </row>
     <row r="30" spans="2:15" ht="26.1" customHeight="1">
-      <c r="B30" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="114"/>
+      <c r="B30" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
     </row>
     <row r="31" spans="2:15" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="127"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D6:L6"/>
     <mergeCell ref="B29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B31:L31"/>
@@ -3719,24 +3740,6 @@
     <mergeCell ref="B28:L28"/>
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B24:L24"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
